--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2224189.054639241</v>
+        <v>2202440.574897525</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12062936.15886392</v>
+        <v>12062936.15886391</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4184108.078182774</v>
+        <v>4184108.078182775</v>
       </c>
     </row>
     <row r="9">
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>208.6902559978753</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>31.37046952385501</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>158.9259276375133</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.92461472628473</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>14.25108662428539</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>62.45439117602597</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>93.1696417752209</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>33.4855758462634</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>282.6988068886399</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>126.5388824951722</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>165.3848965658452</v>
+        <v>270.3808622796254</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>131.6958161938075</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>168.1158122680985</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>87.90026176856672</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951292</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>307.56298629063</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>60.12575163669217</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>100.6935190678386</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>170.454115072569</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>125.4135346272756</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>70.37402966055311</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>226.2218237221398</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>167.0871020271713</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>44.55075485595221</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.6576718038236</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>99.59933623926791</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>276.3457167073713</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>58.35312838683056</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>200.8052136229454</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>212.7626450469272</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.5674709340612</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>124.5696167158505</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>346.128212200739</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>48.3141596030512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>163.1122750074532</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>245.7853873250205</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>70.57092427958108</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>287.835604983472</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>188.605944229153</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>186.2120483577851</v>
       </c>
       <c r="T46" t="n">
-        <v>158.759400274306</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1032.061124352532</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C11" t="n">
-        <v>663.0986074121199</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="D11" t="n">
-        <v>663.0986074121199</v>
+        <v>936.9705155339554</v>
       </c>
       <c r="E11" t="n">
-        <v>277.3103548138757</v>
+        <v>551.1822629357112</v>
       </c>
       <c r="F11" t="n">
-        <v>277.3103548138757</v>
+        <v>140.1963581461036</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>140.1963581461036</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392465</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416653</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>936.5735814686085</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.020896318616</v>
+        <v>470.5862204338725</v>
       </c>
       <c r="C13" t="n">
-        <v>608.0847133907091</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D13" t="n">
-        <v>457.9680739783734</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E13" t="n">
         <v>310.0549803959803</v>
@@ -5196,7 +5196,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.924175709432</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.507005672471</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X13" t="n">
-        <v>1179.461940292386</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y13" t="n">
-        <v>958.6693611488557</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E14" t="n">
         <v>1232.150970528558</v>
@@ -5275,10 +5275,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5287,7 +5287,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5296,34 +5296,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993395</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3119.628073993395</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>3105.233036999167</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2731.767278738087</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>1378.708694614562</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>936.5735814686091</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K15" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L15" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>712.9584475362284</v>
+        <v>890.9213886294039</v>
       </c>
       <c r="C16" t="n">
-        <v>712.9584475362284</v>
+        <v>721.985205701497</v>
       </c>
       <c r="D16" t="n">
-        <v>562.8418081238926</v>
+        <v>571.8685662891612</v>
       </c>
       <c r="E16" t="n">
-        <v>414.9287145414995</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F16" t="n">
-        <v>268.0387670435891</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>100.3359304183081</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>100.3359304183081</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783663</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.740577577776</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W16" t="n">
-        <v>1161.740577577776</v>
+        <v>1293.362432603174</v>
       </c>
       <c r="X16" t="n">
-        <v>933.7510266797585</v>
+        <v>1293.362432603174</v>
       </c>
       <c r="Y16" t="n">
-        <v>712.9584475362284</v>
+        <v>1072.569853459644</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W17" t="n">
-        <v>2630.721789066531</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X17" t="n">
-        <v>2630.721789066531</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y17" t="n">
-        <v>2630.721789066531</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W19" t="n">
-        <v>713.1687850855183</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>713.1687850855183</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>492.3762059419881</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1175.344218980305</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>1175.344218980305</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>817.078520373555</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>817.078520373555</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5822,31 +5822,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2094.160984027476</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C22" t="n">
-        <v>2005.372840826904</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D22" t="n">
-        <v>1855.256201414568</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E22" t="n">
-        <v>1855.256201414568</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F22" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3235.775364366698</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T22" t="n">
-        <v>3014.008748936224</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U22" t="n">
-        <v>3014.008748936224</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>3014.008748936224</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W22" t="n">
-        <v>2724.591578899264</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X22" t="n">
-        <v>2496.602028001246</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y22" t="n">
-        <v>2275.809448857716</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1127.748203495403</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1127.748203495403</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1127.748203495403</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1127.748203495403</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>716.762298705796</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>2277.953133796417</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X23" t="n">
-        <v>1904.487375535337</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>1514.348043559525</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2174.098823536668</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C25" t="n">
-        <v>2174.098823536668</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D25" t="n">
-        <v>2023.982184124332</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E25" t="n">
-        <v>1876.069090541939</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F25" t="n">
-        <v>1876.069090541939</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>3235.775364366698</v>
+        <v>1776.731008384716</v>
       </c>
       <c r="T25" t="n">
-        <v>3014.008748936224</v>
+        <v>1554.964392954241</v>
       </c>
       <c r="U25" t="n">
-        <v>3014.008748936224</v>
+        <v>1554.964392954241</v>
       </c>
       <c r="V25" t="n">
-        <v>2912.298123615175</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W25" t="n">
-        <v>2622.880953578215</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X25" t="n">
-        <v>2394.891402680198</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y25" t="n">
-        <v>2174.098823536668</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C26" t="n">
-        <v>1329.547110979148</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1329.547110979148</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>943.758858380904</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>532.7729535912965</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296687</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.2880032601528</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3518203322459</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2351809199101</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
         <v>66.51211643218343</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1766.379212401018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>1511.694724195131</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>1222.27755415817</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>994.2880032601528</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>994.2880032601528</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1032.061124352532</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C29" t="n">
-        <v>1032.061124352532</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="D29" t="n">
-        <v>1032.061124352532</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="E29" t="n">
-        <v>646.2728717542873</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>235.2869669646797</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>235.2869669646797</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218343</v>
@@ -6469,13 +6469,13 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>526.6580321322147</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C31" t="n">
-        <v>526.6580321322147</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D31" t="n">
-        <v>376.5413927198789</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E31" t="n">
-        <v>331.5406302391191</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F31" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218343</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1446.505797040963</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1446.505797040963</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>1157.088627004002</v>
+        <v>929.7631313112869</v>
       </c>
       <c r="X31" t="n">
-        <v>929.0990761059845</v>
+        <v>929.7631313112869</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.3064969624544</v>
+        <v>708.9705521677568</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796256</v>
+        <v>2209.232076102165</v>
       </c>
       <c r="C32" t="n">
-        <v>821.1650657389509</v>
+        <v>1840.269559161753</v>
       </c>
       <c r="D32" t="n">
-        <v>821.1650657389509</v>
+        <v>1482.003860555003</v>
       </c>
       <c r="E32" t="n">
-        <v>821.1650657389509</v>
+        <v>1096.215607956758</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>685.2297031671508</v>
       </c>
       <c r="G32" t="n">
         <v>406.0926155839475</v>
@@ -6700,10 +6700,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2105.643734196188</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>1936.707551268281</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>1936.707551268281</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>1788.794457685888</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>1788.794457685888</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>1621.091621060607</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435997</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2912.153322005523</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U34" t="n">
-        <v>2623.050455131166</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>2623.050455131166</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>2333.633285094206</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>2105.643734196188</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>2105.643734196188</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1519.135572818019</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C35" t="n">
-        <v>1519.135572818019</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D35" t="n">
-        <v>1160.869874211268</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E35" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792696</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2669.340503119032</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X35" t="n">
-        <v>2295.874744857952</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y35" t="n">
-        <v>1905.73541288214</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T37" t="n">
-        <v>1735.608663915319</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.608663915319</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.924175709432</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.507005672471</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>963.5174547744541</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>856.8836457501499</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1292.833068744076</v>
+        <v>1969.42314369238</v>
       </c>
       <c r="C38" t="n">
-        <v>1292.833068744076</v>
+        <v>1600.460626751968</v>
       </c>
       <c r="D38" t="n">
-        <v>934.5673701373257</v>
+        <v>1242.194928145218</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7207,19 +7207,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V38" t="n">
-        <v>2535.034709923658</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W38" t="n">
-        <v>2182.266054653544</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X38" t="n">
-        <v>1808.800296392464</v>
+        <v>2746.162315732313</v>
       </c>
       <c r="Y38" t="n">
-        <v>1418.660964416652</v>
+        <v>2356.022983756502</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>676.468527222536</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V40" t="n">
-        <v>1134.908724368016</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W40" t="n">
-        <v>1086.106542950793</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X40" t="n">
-        <v>858.1169920527757</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>858.1169920527757</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2098.94140762926</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C41" t="n">
-        <v>1729.978890688848</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D41" t="n">
-        <v>1371.713192082098</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>985.9249394838532</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7444,19 +7444,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W41" t="n">
-        <v>2862.546497866151</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X41" t="n">
-        <v>2489.080739605071</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y41" t="n">
-        <v>2098.94140762926</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>453.6220087565674</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>284.6858258286605</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
         <v>66.51211643218342</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1191.821308835076</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W43" t="n">
-        <v>902.4041387981149</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X43" t="n">
-        <v>674.4145879000976</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y43" t="n">
-        <v>453.6220087565674</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1569.101759311879</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1569.101759311879</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
         <v>1278.358723975039</v>
@@ -7678,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883007</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="V44" t="n">
-        <v>3072.075344883007</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="W44" t="n">
-        <v>2719.306689612893</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X44" t="n">
-        <v>2345.840931351813</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1955.701599376001</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.3980557622424</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C46" t="n">
-        <v>678.4618728343355</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>528.3452334219998</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1739.201569949316</v>
       </c>
       <c r="T46" t="n">
-        <v>1766.931517508386</v>
+        <v>1517.434954518842</v>
       </c>
       <c r="U46" t="n">
-        <v>1477.828650634029</v>
+        <v>1228.332087644485</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.828650634029</v>
+        <v>973.6475994385985</v>
       </c>
       <c r="W46" t="n">
-        <v>1477.828650634029</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X46" t="n">
-        <v>1249.839099736012</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.046520592482</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3760925029322</v>
+        <v>111.3760925029327</v>
       </c>
       <c r="K2" t="n">
-        <v>115.6728628570354</v>
+        <v>115.6728628570362</v>
       </c>
       <c r="L2" t="n">
-        <v>106.2279079411523</v>
+        <v>106.2279079411533</v>
       </c>
       <c r="M2" t="n">
-        <v>86.20968475950721</v>
+        <v>86.20968475950835</v>
       </c>
       <c r="N2" t="n">
-        <v>82.94423508449492</v>
+        <v>82.94423508449609</v>
       </c>
       <c r="O2" t="n">
-        <v>91.79185002470237</v>
+        <v>91.79185002470345</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1917161337037</v>
+        <v>113.1917161337047</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6616048283643</v>
+        <v>133.6616048283649</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.34276391131255</v>
+        <v>85.34276391131289</v>
       </c>
       <c r="K3" t="n">
-        <v>66.92010932095974</v>
+        <v>66.92010932096031</v>
       </c>
       <c r="L3" t="n">
-        <v>43.1918998251921</v>
+        <v>43.19189982519286</v>
       </c>
       <c r="M3" t="n">
-        <v>30.85051777249842</v>
+        <v>30.8505177724993</v>
       </c>
       <c r="N3" t="n">
-        <v>17.11285239577261</v>
+        <v>17.11285239577352</v>
       </c>
       <c r="O3" t="n">
-        <v>38.09915424948154</v>
+        <v>38.09915424948237</v>
       </c>
       <c r="P3" t="n">
-        <v>50.10627990666539</v>
+        <v>50.10627990666606</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.91815189430216</v>
+        <v>83.9181518943026</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>86.23379249476868</v>
+        <v>86.23379249476902</v>
       </c>
       <c r="L4" t="n">
-        <v>80.14168867079314</v>
+        <v>80.14168867079357</v>
       </c>
       <c r="M4" t="n">
-        <v>81.20697904562968</v>
+        <v>81.20697904563013</v>
       </c>
       <c r="N4" t="n">
-        <v>71.33916373595451</v>
+        <v>71.33916373595495</v>
       </c>
       <c r="O4" t="n">
-        <v>86.41153592235757</v>
+        <v>86.41153592235798</v>
       </c>
       <c r="P4" t="n">
-        <v>93.19451333315386</v>
+        <v>93.19451333315422</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48187344321936</v>
+        <v>14.48187344321937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>202.2314696555781</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>263.2372948634654</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8.320893461114508</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7850406627524</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>334.9898820931276</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>307.2767095024431</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>53.26432087134827</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.86684456357469</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.0350347748407</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>222.7020862222408</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>121.1381017707458</v>
+        <v>16.14213605696563</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.0380254696731</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>35.80215787152162</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>79.34655933006111</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>16.14213605696557</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>103.3587393628235</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>181.1251564493154</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>129.6432736947497</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>151.4441242559894</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>194.8187766984386</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>285.5081910261779</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>215.8378085450598</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>155.708546350122</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>127.5206623601491</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>101.883207790617</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>56.86532653276737</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>265.6735555317396</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>134.5760089460822</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>86.40188652749022</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>181.1251564493164</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -25213,10 +25213,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>136.4783236704858</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.0171824180336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>258.1642249476301</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>35.80215787152281</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>238.2088387335398</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>243.7637707342582</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>103.4555813923925</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>78.04454873863128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>66.84743663721093</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>15.3120259104671</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,19 +26073,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>3.556976973656759</v>
       </c>
       <c r="T46" t="n">
-        <v>60.78954900186321</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>841457.8405980836</v>
+        <v>841457.840598084</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674703.4464334926</v>
+        <v>674703.4464334925</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674703.4464334928</v>
+        <v>674703.4464334927</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674703.4464334926</v>
+        <v>674703.4464334927</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674703.4464334926</v>
+        <v>674703.4464334927</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674703.4464334927</v>
+        <v>674703.4464334926</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>674703.4464334927</v>
+        <v>674703.4464334926</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674703.4464334925</v>
+        <v>674703.4464334926</v>
       </c>
     </row>
     <row r="15">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634989.8016103015</v>
+        <v>634989.8016103012</v>
       </c>
       <c r="C2" t="n">
-        <v>634997.3879551599</v>
+        <v>634997.38795516</v>
       </c>
       <c r="D2" t="n">
         <v>635003.8400110491</v>
       </c>
       <c r="E2" t="n">
+        <v>528545.5034049269</v>
+      </c>
+      <c r="F2" t="n">
         <v>528545.503404927</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>528545.5034049271</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>528545.5034049269</v>
+      </c>
+      <c r="I2" t="n">
         <v>528545.503404927</v>
-      </c>
-      <c r="H2" t="n">
-        <v>528545.503404927</v>
-      </c>
-      <c r="I2" t="n">
-        <v>528545.5034049267</v>
       </c>
       <c r="J2" t="n">
         <v>528545.5034049271</v>
       </c>
       <c r="K2" t="n">
-        <v>528545.5034049272</v>
+        <v>528545.503404927</v>
       </c>
       <c r="L2" t="n">
+        <v>528545.5034049269</v>
+      </c>
+      <c r="M2" t="n">
         <v>528545.503404927</v>
-      </c>
-      <c r="M2" t="n">
-        <v>528545.5034049269</v>
       </c>
       <c r="N2" t="n">
         <v>528545.503404927</v>
@@ -26355,7 +26355,7 @@
         <v>528545.5034049271</v>
       </c>
       <c r="P2" t="n">
-        <v>528545.503404927</v>
+        <v>528545.5034049269</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196760.0786190593</v>
+        <v>196760.0786190578</v>
       </c>
       <c r="C3" t="n">
-        <v>27855.40645598246</v>
+        <v>27855.40645598394</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378259.3928997741</v>
+        <v>378259.3928997746</v>
       </c>
       <c r="C4" t="n">
         <v>370434.2549872373</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38078.94064598079</v>
+        <v>38078.94064598076</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26481,13 +26481,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.34056139333</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21891.38944548726</v>
+        <v>21848.8871863101</v>
       </c>
       <c r="C6" t="n">
-        <v>197961.9216807934</v>
+        <v>197919.6641424159</v>
       </c>
       <c r="D6" t="n">
-        <v>209384.1598056003</v>
+        <v>209342.1103980593</v>
       </c>
       <c r="E6" t="n">
-        <v>-470384.6344237248</v>
+        <v>-473860.823721786</v>
       </c>
       <c r="F6" t="n">
-        <v>443858.8157764297</v>
+        <v>440382.6264783686</v>
       </c>
       <c r="G6" t="n">
-        <v>443858.8157764302</v>
+        <v>440382.6264783689</v>
       </c>
       <c r="H6" t="n">
-        <v>443858.8157764299</v>
+        <v>440382.6264783686</v>
       </c>
       <c r="I6" t="n">
-        <v>443858.8157764297</v>
+        <v>440382.6264783689</v>
       </c>
       <c r="J6" t="n">
-        <v>443858.81577643</v>
+        <v>440382.6264783689</v>
       </c>
       <c r="K6" t="n">
-        <v>443858.8157764301</v>
+        <v>440382.6264783688</v>
       </c>
       <c r="L6" t="n">
-        <v>443858.8157764299</v>
+        <v>440382.6264783687</v>
       </c>
       <c r="M6" t="n">
-        <v>236670.2474843567</v>
+        <v>233194.0581862959</v>
       </c>
       <c r="N6" t="n">
-        <v>443858.8157764299</v>
+        <v>440382.6264783688</v>
       </c>
       <c r="O6" t="n">
-        <v>443858.8157764301</v>
+        <v>440382.6264783689</v>
       </c>
       <c r="P6" t="n">
-        <v>443858.8157764299</v>
+        <v>440382.6264783687</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890274</v>
+        <v>204.1899378890257</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26752,10 +26752,10 @@
         <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890274</v>
+        <v>204.1899378890257</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59010023696682</v>
+        <v>30.59010023696844</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.429708268244026e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>331.0681279392606</v>
+        <v>331.0681279392607</v>
       </c>
       <c r="I2" t="n">
-        <v>178.8295274378764</v>
+        <v>178.8295274378766</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>98.30551518367585</v>
+        <v>98.30551518367625</v>
       </c>
       <c r="S2" t="n">
-        <v>190.3146295474666</v>
+        <v>190.3146295474668</v>
       </c>
       <c r="T2" t="n">
-        <v>219.5025170893204</v>
+        <v>219.5025170893205</v>
       </c>
       <c r="U2" t="n">
         <v>251.2799837820832</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.9043161647323</v>
+        <v>136.9043161647324</v>
       </c>
       <c r="H3" t="n">
-        <v>107.9936872248772</v>
+        <v>107.9936872248773</v>
       </c>
       <c r="I3" t="n">
-        <v>74.27501952661447</v>
+        <v>74.27501952661459</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.88884584361415</v>
+        <v>72.88884584361436</v>
       </c>
       <c r="S3" t="n">
         <v>163.5252051891206</v>
@@ -27560,7 +27560,7 @@
         <v>144.3773550168173</v>
       </c>
       <c r="J4" t="n">
-        <v>67.32663672383728</v>
+        <v>67.32663672383748</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.32936263045126</v>
+        <v>55.3293626304515</v>
       </c>
       <c r="R4" t="n">
-        <v>160.7372695280034</v>
+        <v>160.7372695280036</v>
       </c>
       <c r="S4" t="n">
-        <v>217.5996781856072</v>
+        <v>217.5996781856073</v>
       </c>
       <c r="T4" t="n">
         <v>226.3723226937267</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8208640719156872</v>
+        <v>0.8208640719156808</v>
       </c>
       <c r="H2" t="n">
-        <v>8.406674176506534</v>
+        <v>8.406674176506467</v>
       </c>
       <c r="I2" t="n">
-        <v>31.64636213252956</v>
+        <v>31.64636213252931</v>
       </c>
       <c r="J2" t="n">
-        <v>69.66981202375412</v>
+        <v>69.66981202375358</v>
       </c>
       <c r="K2" t="n">
-        <v>104.4169881879452</v>
+        <v>104.4169881879444</v>
       </c>
       <c r="L2" t="n">
-        <v>129.5385070288349</v>
+        <v>129.5385070288339</v>
       </c>
       <c r="M2" t="n">
-        <v>144.1365484677655</v>
+        <v>144.1365484677644</v>
       </c>
       <c r="N2" t="n">
-        <v>146.468828512096</v>
+        <v>146.4688285120948</v>
       </c>
       <c r="O2" t="n">
-        <v>138.3063613969844</v>
+        <v>138.3063613969833</v>
       </c>
       <c r="P2" t="n">
-        <v>118.0412796215658</v>
+        <v>118.0412796215649</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.64408504608524</v>
+        <v>88.64408504608453</v>
       </c>
       <c r="R2" t="n">
-        <v>51.56360275747384</v>
+        <v>51.56360275747343</v>
       </c>
       <c r="S2" t="n">
-        <v>18.70544003877874</v>
+        <v>18.70544003877859</v>
       </c>
       <c r="T2" t="n">
-        <v>3.593332474810923</v>
+        <v>3.593332474810894</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06566912575325497</v>
+        <v>0.06566912575325445</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4392009984782853</v>
+        <v>0.4392009984782818</v>
       </c>
       <c r="H3" t="n">
-        <v>4.24175701161923</v>
+        <v>4.241757011619196</v>
       </c>
       <c r="I3" t="n">
-        <v>15.12161332480061</v>
+        <v>15.12161332480049</v>
       </c>
       <c r="J3" t="n">
-        <v>41.49486275535414</v>
+        <v>41.49486275535381</v>
       </c>
       <c r="K3" t="n">
-        <v>70.92132965339925</v>
+        <v>70.92132965339869</v>
       </c>
       <c r="L3" t="n">
-        <v>95.36247995468209</v>
+        <v>95.36247995468132</v>
       </c>
       <c r="M3" t="n">
-        <v>111.2835161495199</v>
+        <v>111.283516149519</v>
       </c>
       <c r="N3" t="n">
-        <v>114.2288596875607</v>
+        <v>114.2288596875598</v>
       </c>
       <c r="O3" t="n">
-        <v>104.4970901949629</v>
+        <v>104.4970901949621</v>
       </c>
       <c r="P3" t="n">
-        <v>83.86812750766485</v>
+        <v>83.86812750766418</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.06362219171937</v>
+        <v>56.06362219171892</v>
       </c>
       <c r="R3" t="n">
-        <v>27.26898830902899</v>
+        <v>27.26898830902877</v>
       </c>
       <c r="S3" t="n">
-        <v>8.157965914717268</v>
+        <v>8.157965914717202</v>
       </c>
       <c r="T3" t="n">
-        <v>1.770288235094491</v>
+        <v>1.770288235094477</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02889480253146615</v>
+        <v>0.02889480253146592</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3682113634064427</v>
+        <v>0.3682113634064398</v>
       </c>
       <c r="H4" t="n">
-        <v>3.273733758286375</v>
+        <v>3.273733758286349</v>
       </c>
       <c r="I4" t="n">
-        <v>11.07311991044103</v>
+        <v>11.07311991044094</v>
       </c>
       <c r="J4" t="n">
-        <v>26.0325433928355</v>
+        <v>26.03254339283529</v>
       </c>
       <c r="K4" t="n">
-        <v>42.7794656757667</v>
+        <v>42.77946567576636</v>
       </c>
       <c r="L4" t="n">
-        <v>54.74298761044514</v>
+        <v>54.74298761044471</v>
       </c>
       <c r="M4" t="n">
-        <v>57.71880490197537</v>
+        <v>57.71880490197492</v>
       </c>
       <c r="N4" t="n">
-        <v>56.34638072927869</v>
+        <v>56.34638072927824</v>
       </c>
       <c r="O4" t="n">
-        <v>52.04500252948522</v>
+        <v>52.0450025294848</v>
       </c>
       <c r="P4" t="n">
-        <v>44.53349071599375</v>
+        <v>44.53349071599339</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.83268062124313</v>
+        <v>30.83268062124289</v>
       </c>
       <c r="R4" t="n">
-        <v>16.55612184916605</v>
+        <v>16.55612184916592</v>
       </c>
       <c r="S4" t="n">
-        <v>6.416919851365004</v>
+        <v>6.416919851364954</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5732667345548</v>
+        <v>1.573266734554788</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02008425618580599</v>
+        <v>0.02008425618580583</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353158</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34389,7 +34389,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781685</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563569</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597635</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609568</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -38037,7 +38037,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.794304803719</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
